--- a/24. Customer_demographics_and_sales_Lab5.xlsx
+++ b/24. Customer_demographics_and_sales_Lab5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C6126-E277-4847-9E3D-AEF7ADAF4D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65311BF8-DC1A-4890-9E13-983EEC87FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="796">
   <si>
     <t>Baby Food</t>
   </si>
@@ -2419,6 +2419,9 @@
   </si>
   <si>
     <t>Becker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2429,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -2468,97 +2471,16 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -39840,12 +39762,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385EC5C7-692A-45EC-8DE9-9FB13E8598C8}">
-  <dimension ref="A1"/>
+  <dimension ref="H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
